--- a/TCs/Sơn_Testcase.xlsx
+++ b/TCs/Sơn_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8C0D0-FB30-4E56-BE76-C3CC232F2C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C52ED2-CEE5-492A-BE8E-002498C95291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="613" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="613" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="670">
   <si>
     <t>No.</t>
   </si>
@@ -3007,6 +3007,9 @@
   <si>
     <t>Đăng nhập tài khoản Admin ở trang đăng nhập người dùng nhưng không thể đi tới URL dành cho Admin</t>
   </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
 </sst>
 </file>
 
@@ -3015,7 +3018,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3190,6 +3193,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3508,10 +3517,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3770,8 +3780,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
@@ -17624,8 +17638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1035"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17642,7 +17656,7 @@
     <col min="10" max="10" width="7.75" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="12" width="7.75" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="70" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="70" customWidth="1"/>
     <col min="14" max="14" width="13.25" customWidth="1"/>
     <col min="15" max="28" width="7.75" customWidth="1"/>
   </cols>
@@ -17722,8 +17736,10 @@
         <v>288</v>
       </c>
       <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
+      <c r="M2" s="106" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" s="86"/>
     </row>
     <row r="3" spans="1:14" s="70" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
@@ -17756,7 +17772,9 @@
         <v>288</v>
       </c>
       <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="M3" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N3" s="84"/>
     </row>
     <row r="4" spans="1:14" ht="129" x14ac:dyDescent="0.25">
@@ -17790,7 +17808,9 @@
         <v>315</v>
       </c>
       <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="M4" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" s="70" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -17824,7 +17844,9 @@
         <v>315</v>
       </c>
       <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="M5" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N5" s="84"/>
     </row>
     <row r="6" spans="1:14" s="70" customFormat="1" ht="171.75" x14ac:dyDescent="0.25">
@@ -17858,7 +17880,9 @@
         <v>288</v>
       </c>
       <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="M6" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N6" s="84"/>
     </row>
     <row r="7" spans="1:14" s="70" customFormat="1" ht="186" x14ac:dyDescent="0.25">
@@ -17892,7 +17916,9 @@
         <v>288</v>
       </c>
       <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="M7" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N7" s="84"/>
     </row>
     <row r="8" spans="1:14" s="70" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
@@ -17926,7 +17952,9 @@
         <v>315</v>
       </c>
       <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="M8" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N8" s="84"/>
     </row>
     <row r="9" spans="1:14" s="70" customFormat="1" ht="129" x14ac:dyDescent="0.25">
@@ -17960,7 +17988,9 @@
         <v>315</v>
       </c>
       <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
+      <c r="M9" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N9" s="84"/>
     </row>
     <row r="10" spans="1:14" s="70" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
@@ -17994,7 +18024,9 @@
         <v>288</v>
       </c>
       <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
+      <c r="M10" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N10" s="84"/>
     </row>
     <row r="11" spans="1:14" s="70" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -18028,7 +18060,9 @@
         <v>288</v>
       </c>
       <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
+      <c r="M11" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:14" s="70" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
@@ -18064,7 +18098,9 @@
         <v>288</v>
       </c>
       <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
+      <c r="M12" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N12" s="84"/>
     </row>
     <row r="13" spans="1:14" s="70" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -18100,7 +18136,9 @@
         <v>315</v>
       </c>
       <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
+      <c r="M13" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N13" s="84"/>
     </row>
     <row r="14" spans="1:14" s="70" customFormat="1" ht="129" x14ac:dyDescent="0.25">
@@ -18136,7 +18174,9 @@
         <v>315</v>
       </c>
       <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="M14" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N14" s="84"/>
     </row>
     <row r="15" spans="1:14" s="70" customFormat="1" ht="129" x14ac:dyDescent="0.25">
@@ -18172,7 +18212,9 @@
         <v>315</v>
       </c>
       <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
+      <c r="M15" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N15" s="84"/>
     </row>
     <row r="16" spans="1:14" s="70" customFormat="1" ht="186" x14ac:dyDescent="0.25">
@@ -18208,7 +18250,9 @@
         <v>315</v>
       </c>
       <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
+      <c r="M16" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" s="70" customFormat="1" ht="100.5" x14ac:dyDescent="0.25">
@@ -18242,7 +18286,9 @@
         <v>315</v>
       </c>
       <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="M17" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N17" s="84"/>
     </row>
     <row r="18" spans="1:14" s="70" customFormat="1" ht="100.5" x14ac:dyDescent="0.25">
@@ -18276,7 +18322,9 @@
         <v>315</v>
       </c>
       <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
+      <c r="M18" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N18" s="84"/>
     </row>
     <row r="19" spans="1:14" s="70" customFormat="1" ht="200.25" x14ac:dyDescent="0.25">
@@ -18310,7 +18358,9 @@
         <v>288</v>
       </c>
       <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
+      <c r="M19" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" s="70" customFormat="1" ht="214.5" x14ac:dyDescent="0.25">
@@ -18344,7 +18394,9 @@
         <v>288</v>
       </c>
       <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
+      <c r="M20" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N20" s="84"/>
     </row>
     <row r="21" spans="1:14" s="70" customFormat="1" ht="228.75" x14ac:dyDescent="0.25">
@@ -18378,7 +18430,9 @@
         <v>288</v>
       </c>
       <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
+      <c r="M21" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N21" s="84"/>
     </row>
     <row r="22" spans="1:14" s="70" customFormat="1" ht="228.75" x14ac:dyDescent="0.25">
@@ -18412,7 +18466,9 @@
         <v>288</v>
       </c>
       <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
+      <c r="M22" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="1:14" s="70" customFormat="1" ht="243" x14ac:dyDescent="0.25">
@@ -18446,7 +18502,9 @@
         <v>315</v>
       </c>
       <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
+      <c r="M23" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N23" s="84"/>
     </row>
     <row r="24" spans="1:14" s="70" customFormat="1" ht="243" x14ac:dyDescent="0.25">
@@ -18480,7 +18538,9 @@
         <v>315</v>
       </c>
       <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
+      <c r="M24" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N24" s="84"/>
     </row>
     <row r="25" spans="1:14" s="70" customFormat="1" ht="228.75" x14ac:dyDescent="0.25">
@@ -18514,7 +18574,9 @@
         <v>288</v>
       </c>
       <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
+      <c r="M25" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N25" s="84"/>
     </row>
     <row r="26" spans="1:14" s="70" customFormat="1" ht="225" x14ac:dyDescent="0.25">
@@ -18548,7 +18610,9 @@
         <v>288</v>
       </c>
       <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
+      <c r="M26" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N26" s="84"/>
     </row>
     <row r="27" spans="1:14" s="70" customFormat="1" ht="214.5" x14ac:dyDescent="0.25">
@@ -18582,7 +18646,9 @@
         <v>288</v>
       </c>
       <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
+      <c r="M27" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N27" s="84"/>
     </row>
     <row r="28" spans="1:14" s="70" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
@@ -18616,7 +18682,9 @@
         <v>315</v>
       </c>
       <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
+      <c r="M28" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" s="70" customFormat="1" ht="100.5" x14ac:dyDescent="0.25">
@@ -18650,7 +18718,9 @@
         <v>315</v>
       </c>
       <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
+      <c r="M29" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N29" s="84"/>
     </row>
     <row r="30" spans="1:14" s="70" customFormat="1" ht="186" x14ac:dyDescent="0.25">
@@ -18684,7 +18754,9 @@
         <v>315</v>
       </c>
       <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
+      <c r="M30" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N30" s="84"/>
     </row>
     <row r="31" spans="1:14" s="70" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
@@ -18718,7 +18790,9 @@
         <v>315</v>
       </c>
       <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
+      <c r="M31" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" s="70" customFormat="1" ht="200.25" x14ac:dyDescent="0.25">
@@ -18752,7 +18826,9 @@
         <v>315</v>
       </c>
       <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
+      <c r="M32" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N32" s="84"/>
     </row>
     <row r="33" spans="1:14" s="70" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
@@ -18786,7 +18862,9 @@
         <v>315</v>
       </c>
       <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
+      <c r="M33" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N33" s="84"/>
     </row>
     <row r="34" spans="1:14" s="70" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -18820,7 +18898,9 @@
         <v>287</v>
       </c>
       <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
+      <c r="M34" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N34" s="84"/>
     </row>
     <row r="35" spans="1:14" s="70" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -18854,7 +18934,9 @@
         <v>287</v>
       </c>
       <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
+      <c r="M35" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N35" s="84"/>
     </row>
     <row r="36" spans="1:14" s="70" customFormat="1" ht="171.75" x14ac:dyDescent="0.25">
@@ -18888,7 +18970,9 @@
         <v>287</v>
       </c>
       <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
+      <c r="M36" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N36" s="84"/>
     </row>
     <row r="37" spans="1:14" s="70" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
@@ -18922,7 +19006,9 @@
         <v>287</v>
       </c>
       <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
+      <c r="M37" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N37" s="84"/>
     </row>
     <row r="38" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
@@ -18958,7 +19044,9 @@
         <v>288</v>
       </c>
       <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
+      <c r="M38" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N38" s="84"/>
     </row>
     <row r="39" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
@@ -18994,7 +19082,9 @@
         <v>315</v>
       </c>
       <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
+      <c r="M39" s="106" t="s">
+        <v>669</v>
+      </c>
       <c r="N39" s="84"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20025,10 +20115,14 @@
     <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" display="https://drive.google.com/drive/folders/1cK1bqin2ngqxdbP30m70ipZYYlw5PZty?usp=sharing" xr:uid="{667A8B30-8F99-4DFB-B5D4-B1BC7E965231}"/>
+    <hyperlink ref="M3:M39" r:id="rId2" display="https://drive.google.com/drive/folders/1cK1bqin2ngqxdbP30m70ipZYYlw5PZty?usp=sharing" xr:uid="{79C19927-964E-4B4E-BAFF-C8F19F3ADAE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -48526,7 +48620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
